--- a/2022/Symphony/February/02.02.2022/MC Bank Statement February-2022.xlsx
+++ b/2022/Symphony/February/02.02.2022/MC Bank Statement February-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="210">
   <si>
     <t>Date</t>
   </si>
@@ -651,9 +651,6 @@
   </si>
   <si>
     <t>Abdulpur</t>
-  </si>
-  <si>
-    <t>Kamrul</t>
   </si>
   <si>
     <t>02.02.2022</t>
@@ -4908,7 +4905,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="308"/>
       <c r="B6" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="269">
         <v>250000</v>
@@ -6060,7 +6057,7 @@
     </row>
     <row r="7" spans="1:24" s="13" customFormat="1">
       <c r="A7" s="81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="82">
         <v>500</v>
@@ -8920,6 +8917,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -8936,9 +8936,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -8951,8 +8948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9508,20 +9505,20 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="192" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="55">
         <v>309310</v>
       </c>
       <c r="C6" s="58">
-        <v>317850</v>
+        <v>319090</v>
       </c>
       <c r="D6" s="55">
         <v>1430</v>
       </c>
       <c r="E6" s="55">
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
-        <v>319280</v>
+        <v>320520</v>
       </c>
       <c r="F6" s="243"/>
       <c r="G6" s="256">
@@ -12280,7 +12277,7 @@
       </c>
       <c r="C33" s="277">
         <f>SUM(C5:C32)</f>
-        <v>537201</v>
+        <v>538441</v>
       </c>
       <c r="D33" s="276">
         <f>SUM(D5:D32)</f>
@@ -12288,11 +12285,11 @@
       </c>
       <c r="E33" s="276">
         <f>SUM(E5:E32)</f>
-        <v>541630</v>
+        <v>542870</v>
       </c>
       <c r="F33" s="276">
         <f>B33-E33</f>
-        <v>159840</v>
+        <v>158600</v>
       </c>
       <c r="G33" s="278"/>
       <c r="H33" s="148"/>
@@ -13039,7 +13036,7 @@
         <v>16570</v>
       </c>
       <c r="E40" s="185" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F40" s="141"/>
       <c r="G40" s="154"/>
@@ -13360,16 +13357,10 @@
       <c r="A43" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="126" t="s">
-        <v>206</v>
-      </c>
+      <c r="B43" s="126"/>
       <c r="C43" s="125"/>
-      <c r="D43" s="218">
-        <v>1240</v>
-      </c>
-      <c r="E43" s="185" t="s">
-        <v>202</v>
-      </c>
+      <c r="D43" s="218"/>
+      <c r="E43" s="185"/>
       <c r="F43" s="143"/>
       <c r="G43" s="327"/>
       <c r="H43" s="327"/>
@@ -13697,7 +13688,7 @@
         <v>575580</v>
       </c>
       <c r="E46" s="289" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F46" s="140"/>
       <c r="G46" s="147"/>
@@ -14417,7 +14408,7 @@
         <v>43680</v>
       </c>
       <c r="E52" s="188" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F52" s="141"/>
       <c r="G52" s="147"/>
@@ -14535,7 +14526,7 @@
         <v>34470</v>
       </c>
       <c r="E53" s="189" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F53" s="141"/>
       <c r="G53" s="147"/>
@@ -14653,7 +14644,7 @@
         <v>104500</v>
       </c>
       <c r="E54" s="187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F54" s="141"/>
       <c r="G54" s="147"/>
@@ -17523,7 +17514,7 @@
         <v>7110</v>
       </c>
       <c r="E79" s="188" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F79" s="141"/>
       <c r="G79" s="147"/>
@@ -18233,7 +18224,7 @@
         <v>11530</v>
       </c>
       <c r="E85" s="187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F85" s="143"/>
       <c r="G85" s="147"/>
@@ -18695,17 +18686,17 @@
     </row>
     <row r="89" spans="1:97">
       <c r="A89" s="238" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="60" t="s">
         <v>209</v>
-      </c>
-      <c r="B89" s="60" t="s">
-        <v>210</v>
       </c>
       <c r="C89" s="125"/>
       <c r="D89" s="221">
         <v>6700</v>
       </c>
       <c r="E89" s="189" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="141"/>
       <c r="G89" s="147"/>
@@ -21859,7 +21850,7 @@
       <c r="C119" s="337"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2511865</v>
+        <v>2510625</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22066,7 +22057,7 @@
       <c r="C121" s="325"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2511865</v>
+        <v>2510625</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -33298,7 +33289,7 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -33340,7 +33331,7 @@
     </row>
     <row r="3" spans="1:25" ht="23.25">
       <c r="A3" s="341" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="342"/>
       <c r="C3" s="342"/>
